--- a/June2021/27.06.2021/Hello Daffodils Balance Transfer June'2021.xlsx
+++ b/June2021/27.06.2021/Hello Daffodils Balance Transfer June'2021.xlsx
@@ -1453,7 +1453,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
